--- a/tests/results.xlsx
+++ b/tests/results.xlsx
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="mysql_dashboard_results" localSheetId="0">'MySQL Dashboard'!$A$1:$M$15</definedName>
     <definedName name="neo4j_dashboard_results" localSheetId="1">'Neo4j Dashboard'!$A$1:$M$15</definedName>
+    <definedName name="q9_" localSheetId="0">'MySQL Dashboard'!$B$40:$N$41</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -55,6 +56,25 @@
   </connection>
   <connection id="2" name="neo4j_dashboard_results" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/hmg/Documents/projects/gsql/tests/neo4j_dashboard_results.csv" decimal="," thousands=" " comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="q9" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hmg/Documents/projects/gsql/tests/q9.csv" thousands=" " comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -1291,21 +1311,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,10 +1325,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1542,7 +1563,7 @@
                   <c:v>0.09425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.32569</c:v>
+                  <c:v>1.31339</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.12084</c:v>
@@ -1715,11 +1736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="792511216"/>
-        <c:axId val="792311440"/>
+        <c:axId val="-127846928"/>
+        <c:axId val="-127522032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="792511216"/>
+        <c:axId val="-127846928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="792311440"/>
+        <c:crossAx val="-127522032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1770,7 +1791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="792311440"/>
+        <c:axId val="-127522032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1791,6 +1812,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1821,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="792511216"/>
+        <c:crossAx val="-127846928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2483,10 +2505,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="q9" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mysql_dashboard_results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="neo4j_dashboard_results" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2756,12 +2782,12 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -2772,6 +2798,7 @@
     <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -3445,7 +3472,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" ref="A18:A31" si="1">A3</f>
+        <f t="shared" ref="A18:A30" si="1">A3</f>
         <v>Q2</v>
       </c>
       <c r="B18">
@@ -3823,56 +3850,45 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
+        <f>A10</f>
         <v>Q9</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:M25" si="9">ROUND(B10,5)</f>
-        <v>1.32569</v>
+        <v>1.3133900000000001</v>
       </c>
       <c r="C25">
-        <f t="shared" si="9"/>
-        <v>5.5399999999999998E-3</v>
+        <v>6.3519999999999993E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="9"/>
-        <v>1.3156099999999999</v>
+        <v>1.0597099999999999</v>
       </c>
       <c r="E25">
-        <f t="shared" si="9"/>
-        <v>1.34859</v>
+        <v>1.53745</v>
       </c>
       <c r="F25">
-        <f t="shared" si="9"/>
-        <v>1.349E-2</v>
+        <v>1.303E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="9"/>
-        <v>8.0000000000000007E-5</v>
+        <v>1.4E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
-        <v>1.329E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="I25">
-        <f t="shared" si="9"/>
-        <v>1.376E-2</v>
+        <v>1.4409999999999999E-2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="9"/>
-        <v>9.8239999999999994E-2</v>
+        <v>0.10181999999999999</v>
       </c>
       <c r="K25">
-        <f t="shared" si="9"/>
-        <v>4.4000000000000002E-4</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="9"/>
+        <f>ROUND(L10,5)</f>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -3881,51 +3897,51 @@
         <v>Q10</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:M26" si="10">ROUND(B11,5)</f>
+        <f t="shared" ref="B26:M26" si="9">ROUND(B11,5)</f>
         <v>3.1208399999999998</v>
       </c>
       <c r="C26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.29480000000000001</v>
       </c>
       <c r="D26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.02156</v>
       </c>
       <c r="E26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.6488800000000001</v>
       </c>
       <c r="F26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.2760000000000001E-2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1E-4</v>
       </c>
       <c r="H26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.204E-2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.306E-2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.2445</v>
       </c>
       <c r="K26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1530000000000001E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.23799999999999999</v>
       </c>
       <c r="M26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.35599999999999998</v>
       </c>
     </row>
@@ -3935,51 +3951,51 @@
         <v>Q11</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:M27" si="11">ROUND(B12,5)</f>
+        <f t="shared" ref="B27:M27" si="10">ROUND(B12,5)</f>
         <v>0.95184000000000002</v>
       </c>
       <c r="C27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19442000000000001</v>
       </c>
       <c r="D27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.85921000000000003</v>
       </c>
       <c r="E27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4195</v>
       </c>
       <c r="F27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3999999999999999E-4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2449999999999999E-2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.307E-2</v>
       </c>
       <c r="J27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.485E-2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.453E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.109</v>
       </c>
     </row>
@@ -3989,51 +4005,51 @@
         <v>Q12</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:M28" si="12">ROUND(B13,5)</f>
+        <f t="shared" ref="B28:M28" si="11">ROUND(B13,5)</f>
         <v>0.98814000000000002</v>
       </c>
       <c r="C28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.11294999999999999</v>
       </c>
       <c r="D28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.94406000000000001</v>
       </c>
       <c r="E28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.50116</v>
       </c>
       <c r="F28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.319E-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.2E-4</v>
       </c>
       <c r="H28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.2930000000000001E-2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.396E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.4929999999999997E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.4899999999999993E-3</v>
       </c>
       <c r="L28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.114</v>
       </c>
     </row>
@@ -4043,51 +4059,51 @@
         <v>Q13</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:M29" si="13">ROUND(B14,5)</f>
+        <f t="shared" ref="B29:M29" si="12">ROUND(B14,5)</f>
         <v>0.87587000000000004</v>
       </c>
       <c r="C29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.77E-3</v>
       </c>
       <c r="D29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.86178999999999994</v>
       </c>
       <c r="E29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.88568000000000002</v>
       </c>
       <c r="F29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.2E-4</v>
       </c>
       <c r="H29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.306E-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.358E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.5839999999999996E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
@@ -4097,51 +4113,51 @@
         <v>Q14</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:M30" si="14">ROUND(B15,5)</f>
+        <f t="shared" ref="B30:M30" si="13">ROUND(B15,5)</f>
         <v>3.9367700000000001</v>
       </c>
       <c r="C30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.0939999999999999E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.9019200000000001</v>
       </c>
       <c r="E30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.1628999999999996</v>
       </c>
       <c r="F30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.274E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="H30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.2630000000000001E-2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.338E-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.30893999999999999</v>
       </c>
       <c r="K30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.24E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.308</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.32100000000000001</v>
       </c>
     </row>
@@ -4155,7 +4171,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" activeCellId="1" sqref="A18:B31 J18:J31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4844,7 +4860,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" ref="A19:A33" si="2">A3</f>
+        <f t="shared" ref="A19:A31" si="2">A3</f>
         <v>Q2</v>
       </c>
       <c r="B19">
@@ -5553,8 +5569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5565,288 +5581,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="3" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>8.4790000000000004E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>2.6345100000000001</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>7.2300000000000003E-3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>0.20065</v>
       </c>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>0.89783999999999997</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>4.4944899999999999</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>6.719E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>0.32716000000000001</v>
       </c>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>1.40829</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>7.1556499999999996</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>0.10653</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>0.51698</v>
       </c>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>3.74356</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>9.0404099999999996</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>0.28338999999999998</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>0.65434999999999999</v>
       </c>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>2.3255300000000001</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>6.4678000000000004</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>0.17902000000000001</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>0.47360000000000002</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>0.1168</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>2.6848200000000002</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>8.0300000000000007E-3</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>0.20135</v>
       </c>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>1.2222299999999999</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>4.6356599999999997</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>9.0469999999999995E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>0.33742</v>
       </c>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>9.425E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>9.5603200000000008</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>6.6499999999999997E-3</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>0.70984000000000003</v>
       </c>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="13">
-        <v>1.32569</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="14">
+        <v>1.3133900000000001</v>
+      </c>
+      <c r="G13" s="7">
         <v>7.8445799999999997</v>
       </c>
-      <c r="H13" s="10">
-        <v>9.8239999999999994E-2</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="14">
+        <v>0.10181999999999999</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.57301000000000002</v>
       </c>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>3.1208399999999998</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>9.2269500000000004</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>0.2445</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>0.58421000000000001</v>
       </c>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <v>0.95184000000000002</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <v>2.5037400000000001</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>7.485E-2</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>0.18468000000000001</v>
       </c>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <v>0.98814000000000002</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>4.0741199999999997</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>7.4929999999999997E-2</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>0.29969000000000001</v>
       </c>
     </row>
     <row r="17" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>0.87587000000000004</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>4.31006</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>6.5839999999999996E-2</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>0.31408999999999998</v>
       </c>
     </row>
     <row r="18" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>3.9367700000000001</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>6.2300599999999999</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>0.30893999999999999</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>0.45286999999999999</v>
       </c>
     </row>
     <row r="19" spans="5:24" x14ac:dyDescent="0.2">
       <c r="V19" s="1"/>
-      <c r="W19" s="5" t="s">
+      <c r="W19" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="X19" s="4" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5873,8 +5889,8 @@
       </c>
     </row>
     <row r="22" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="V22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5886,8 +5902,8 @@
       </c>
     </row>
     <row r="23" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="V23" s="2" t="s">
         <v>39</v>
       </c>
@@ -5899,8 +5915,8 @@
       </c>
     </row>
     <row r="24" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="V24" s="2" t="s">
         <v>52</v>
       </c>
@@ -5912,8 +5928,8 @@
       </c>
     </row>
     <row r="25" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="V25" s="2" t="s">
         <v>65</v>
       </c>
@@ -5925,8 +5941,8 @@
       </c>
     </row>
     <row r="26" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="V26" s="2" t="s">
         <v>78</v>
       </c>
@@ -5938,8 +5954,8 @@
       </c>
     </row>
     <row r="27" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="V27" s="2" t="s">
         <v>90</v>
       </c>
@@ -5951,8 +5967,8 @@
       </c>
     </row>
     <row r="28" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="V28" s="2" t="s">
         <v>103</v>
       </c>
@@ -5964,21 +5980,21 @@
       </c>
     </row>
     <row r="29" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="V29" s="2" t="s">
         <v>115</v>
       </c>
       <c r="W29" s="2">
-        <v>1.32569</v>
+        <v>1.3133900000000001</v>
       </c>
       <c r="X29" s="1">
         <v>7.8445799999999997</v>
       </c>
     </row>
     <row r="30" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="V30" s="2" t="s">
         <v>128</v>
       </c>
@@ -5990,8 +6006,8 @@
       </c>
     </row>
     <row r="31" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="V31" s="2" t="s">
         <v>141</v>
       </c>
@@ -6003,8 +6019,8 @@
       </c>
     </row>
     <row r="32" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="V32" s="2" t="s">
         <v>154</v>
       </c>
@@ -6016,8 +6032,8 @@
       </c>
     </row>
     <row r="33" spans="8:24" x14ac:dyDescent="0.2">
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="V33" s="2" t="s">
         <v>167</v>
       </c>
@@ -6029,8 +6045,8 @@
       </c>
     </row>
     <row r="34" spans="8:24" x14ac:dyDescent="0.2">
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="V34" s="2" t="s">
         <v>179</v>
       </c>
@@ -6042,16 +6058,16 @@
       </c>
     </row>
     <row r="35" spans="8:24" x14ac:dyDescent="0.2">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="8:24" x14ac:dyDescent="0.2">
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="8:24" x14ac:dyDescent="0.2">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
